--- a/BARU.xlsx
+++ b/BARU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN 10\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN 10\Desktop\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6AC893A-052D-4D7D-B524-6D8E6913C479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7E2E17-8400-4984-AE92-6893DF99209E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{7452AB45-6E49-4BF1-9CE3-59839C44B0A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7452AB45-6E49-4BF1-9CE3-59839C44B0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +645,7 @@
         <v>15.77</v>
       </c>
       <c r="L2">
-        <v>21095968.710000001</v>
+        <v>2.1095968709999999</v>
       </c>
       <c r="M2">
         <v>1033</v>
@@ -686,7 +686,7 @@
         <v>16.47</v>
       </c>
       <c r="L3">
-        <v>17866315.489999998</v>
+        <v>1.7866315489999998</v>
       </c>
       <c r="M3">
         <v>620</v>
@@ -727,7 +727,7 @@
         <v>14.12</v>
       </c>
       <c r="L4">
-        <v>62373478.740000002</v>
+        <v>6.2373478740000001</v>
       </c>
       <c r="M4">
         <v>1329</v>
@@ -768,7 +768,7 @@
         <v>17.059999999999999</v>
       </c>
       <c r="L5">
-        <v>25310591.989999998</v>
+        <v>2.531059199</v>
       </c>
       <c r="M5">
         <v>533</v>
@@ -809,7 +809,7 @@
         <v>15.62</v>
       </c>
       <c r="L6">
-        <v>18283002.940000001</v>
+        <v>1.8283002940000002</v>
       </c>
       <c r="M6">
         <v>759</v>
@@ -850,7 +850,7 @@
         <v>17.18</v>
       </c>
       <c r="L7">
-        <v>14039069.25</v>
+        <v>1.403906925</v>
       </c>
       <c r="M7">
         <v>1221</v>
@@ -891,7 +891,7 @@
         <v>16.829999999999998</v>
       </c>
       <c r="L8">
-        <v>15072409.880000001</v>
+        <v>1.5072409880000002</v>
       </c>
       <c r="M8">
         <v>799</v>
@@ -932,7 +932,7 @@
         <v>16.79</v>
       </c>
       <c r="L9">
-        <v>14639157.880000001</v>
+        <v>1.463915788</v>
       </c>
       <c r="M9">
         <v>1087</v>
@@ -973,7 +973,7 @@
         <v>17.22</v>
       </c>
       <c r="L10">
-        <v>34069512.340000004</v>
+        <v>3.4069512340000006</v>
       </c>
       <c r="M10">
         <v>1449</v>
@@ -1014,7 +1014,7 @@
         <v>15.78</v>
       </c>
       <c r="L11">
-        <v>66589465.439999998</v>
+        <v>6.658946544</v>
       </c>
       <c r="M11">
         <v>1336</v>
@@ -1055,7 +1055,7 @@
         <v>12.96</v>
       </c>
       <c r="L12">
-        <v>76947023.290000007</v>
+        <v>7.694702329000001</v>
       </c>
       <c r="M12">
         <v>717</v>
@@ -1096,7 +1096,7 @@
         <v>16.73</v>
       </c>
       <c r="L13">
-        <v>17757544.449999999</v>
+        <v>1.775754445</v>
       </c>
       <c r="M13">
         <v>815</v>
@@ -1137,7 +1137,7 @@
         <v>12.53</v>
       </c>
       <c r="L14">
-        <v>21991181.969999999</v>
+        <v>2.1991181969999998</v>
       </c>
       <c r="M14">
         <v>285</v>
@@ -1178,7 +1178,7 @@
         <v>13.3</v>
       </c>
       <c r="L15">
-        <v>28469912.41</v>
+        <v>2.846991241</v>
       </c>
       <c r="M15">
         <v>589</v>
@@ -1219,7 +1219,7 @@
         <v>14.06</v>
       </c>
       <c r="L16">
-        <v>36010338.189999998</v>
+        <v>3.601033819</v>
       </c>
       <c r="M16">
         <v>1103</v>
@@ -1260,7 +1260,7 @@
         <v>14.63</v>
       </c>
       <c r="L17">
-        <v>51641318.630000003</v>
+        <v>5.1641318630000006</v>
       </c>
       <c r="M17">
         <v>1154</v>
@@ -1301,7 +1301,7 @@
         <v>13</v>
       </c>
       <c r="L18">
-        <v>19375401.899999999</v>
+        <v>1.9375401899999998</v>
       </c>
       <c r="M18">
         <v>773</v>
@@ -1342,7 +1342,7 @@
         <v>15.6</v>
       </c>
       <c r="L19">
-        <v>25803658.109999999</v>
+        <v>2.5803658110000001</v>
       </c>
       <c r="M19">
         <v>1215</v>
@@ -1383,7 +1383,7 @@
         <v>15.08</v>
       </c>
       <c r="L20">
-        <v>23238470.760000002</v>
+        <v>2.3238470760000003</v>
       </c>
       <c r="M20">
         <v>1328</v>
@@ -1424,7 +1424,7 @@
         <v>15.51</v>
       </c>
       <c r="L21">
-        <v>15526975.77</v>
+        <v>1.552697577</v>
       </c>
       <c r="M21">
         <v>130</v>
@@ -1465,7 +1465,7 @@
         <v>16.87</v>
       </c>
       <c r="L22">
-        <v>17953616.370000001</v>
+        <v>1.7953616370000001</v>
       </c>
       <c r="M22">
         <v>187</v>
@@ -1506,7 +1506,7 @@
         <v>16.489999999999998</v>
       </c>
       <c r="L23">
-        <v>19275474.890000001</v>
+        <v>1.9275474890000002</v>
       </c>
       <c r="M23">
         <v>412</v>
@@ -1547,7 +1547,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="L24">
-        <v>46643853.890000001</v>
+        <v>4.6643853890000004</v>
       </c>
       <c r="M24">
         <v>258</v>
@@ -1588,7 +1588,7 @@
         <v>16.75</v>
       </c>
       <c r="L25">
-        <v>17519828.260000002</v>
+        <v>1.7519828260000001</v>
       </c>
       <c r="M25">
         <v>235</v>
@@ -1629,7 +1629,7 @@
         <v>17.11</v>
       </c>
       <c r="L26">
-        <v>18702513.57</v>
+        <v>1.8702513570000001</v>
       </c>
       <c r="M26">
         <v>128</v>
@@ -1670,7 +1670,7 @@
         <v>15.21</v>
       </c>
       <c r="L27">
-        <v>20499335.300000001</v>
+        <v>2.0499335300000001</v>
       </c>
       <c r="M27">
         <v>198</v>
@@ -1711,7 +1711,7 @@
         <v>17.22</v>
       </c>
       <c r="L28">
-        <v>13866961.300000001</v>
+        <v>1.38669613</v>
       </c>
       <c r="M28">
         <v>329</v>
